--- a/results/gurobi_cplex_comparison/seed_30_k_35.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_35.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="F2">
-        <v>0.031</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.022</v>
+        <v>1.36</v>
       </c>
       <c r="F3">
-        <v>0.048</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.024</v>
+        <v>1.861</v>
       </c>
       <c r="F4">
-        <v>0.052</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.032</v>
+        <v>2.428</v>
       </c>
       <c r="F5">
-        <v>0.054</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.023</v>
+        <v>3.077</v>
       </c>
       <c r="F6">
-        <v>0.062</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.032</v>
+        <v>3.821</v>
       </c>
       <c r="F7">
-        <v>0.067</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>4.634</v>
       </c>
       <c r="F8">
-        <v>0.081</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.077</v>
+        <v>5.596</v>
       </c>
       <c r="F9">
-        <v>0.074</v>
+        <v>1.158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.045</v>
+        <v>6.467</v>
       </c>
       <c r="F10">
-        <v>0.119</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.089</v>
+        <v>7.557</v>
       </c>
       <c r="F11">
-        <v>9.749000000000001</v>
+        <v>95.155</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.174</v>
+        <v>8.695</v>
       </c>
       <c r="F12">
-        <v>16.348</v>
+        <v>109.375</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.107</v>
+        <v>9.917999999999999</v>
       </c>
       <c r="F13">
-        <v>6.036</v>
+        <v>128.505</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.269</v>
+        <v>11.3</v>
       </c>
       <c r="F14">
-        <v>5.543</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.056</v>
+        <v>12.441</v>
       </c>
       <c r="F15">
-        <v>4.381</v>
+        <v>97.89400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.129</v>
+        <v>13.882</v>
       </c>
       <c r="F16">
-        <v>13.86</v>
+        <v>76.899</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.222</v>
+        <v>15.569</v>
       </c>
       <c r="F17">
-        <v>14.196</v>
+        <v>113.248</v>
       </c>
     </row>
   </sheetData>
